--- a/Data and Software/Overview_FullData_For_4_Academic_Years - 30 October 2023 - 2022.xlsx
+++ b/Data and Software/Overview_FullData_For_4_Academic_Years - 30 October 2023 - 2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keneo\Downloads\Data and Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0A5C5E-AE4C-4D0D-9E5E-F9B803A6EB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5DFD5B-52E0-448A-9579-D85E80A88BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="914" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="53">
   <si>
     <t>Overview</t>
   </si>
@@ -547,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -669,6 +669,15 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -744,24 +753,6 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -770,6 +761,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1194,159 +1203,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="16" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="55" t="s">
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="48" t="s">
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="45"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="50"/>
+      <c r="AU1" s="50"/>
+      <c r="AV1" s="50"/>
+      <c r="AW1" s="50"/>
+      <c r="AX1" s="50"/>
+      <c r="AY1" s="50"/>
+      <c r="AZ1" s="48"/>
       <c r="BA1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:53" ht="16" x14ac:dyDescent="0.35">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="55" t="s">
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="55" t="s">
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="47"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="55" t="s">
+      <c r="N2" s="50"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="56" t="s">
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="57" t="s">
+      <c r="U2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="55" t="s">
+      <c r="V2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="47"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="55" t="s">
+      <c r="W2" s="50"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="55" t="s">
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="55" t="s">
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="56" t="s">
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="57" t="s">
+      <c r="AI2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="AJ2" s="48" t="s">
+      <c r="AJ2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="48" t="s">
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="48" t="s">
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="48"/>
+      <c r="AR2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="47"/>
-      <c r="AU2" s="45"/>
-      <c r="AV2" s="48" t="s">
+      <c r="AS2" s="50"/>
+      <c r="AT2" s="50"/>
+      <c r="AU2" s="48"/>
+      <c r="AV2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="45"/>
-      <c r="AZ2" s="49" t="s">
+      <c r="AW2" s="50"/>
+      <c r="AX2" s="50"/>
+      <c r="AY2" s="48"/>
+      <c r="AZ2" s="52" t="s">
         <v>12</v>
       </c>
       <c r="BA2" s="5" t="s">
@@ -1411,8 +1420,8 @@
       <c r="S3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="50"/>
-      <c r="U3" s="58"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="61"/>
       <c r="V3" s="9" t="s">
         <v>16</v>
       </c>
@@ -1449,8 +1458,8 @@
       <c r="AG3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="58"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="61"/>
       <c r="AJ3" s="9" t="s">
         <v>16</v>
       </c>
@@ -1499,13 +1508,13 @@
       <c r="AY3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AZ3" s="50"/>
+      <c r="AZ3" s="53"/>
       <c r="BA3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:53" ht="16" x14ac:dyDescent="0.35">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="44" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -1666,7 +1675,7 @@
       </c>
     </row>
     <row r="5" spans="1:53" ht="16" x14ac:dyDescent="0.35">
-      <c r="A5" s="42"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="12" t="s">
         <v>23</v>
       </c>
@@ -1825,7 +1834,7 @@
       </c>
     </row>
     <row r="6" spans="1:53" ht="32" x14ac:dyDescent="0.35">
-      <c r="A6" s="42"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="12" t="s">
         <v>24</v>
       </c>
@@ -1984,7 +1993,7 @@
       </c>
     </row>
     <row r="7" spans="1:53" ht="16" x14ac:dyDescent="0.35">
-      <c r="A7" s="42"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="12" t="s">
         <v>25</v>
       </c>
@@ -2143,7 +2152,7 @@
       </c>
     </row>
     <row r="8" spans="1:53" ht="32" x14ac:dyDescent="0.35">
-      <c r="A8" s="42"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="12" t="s">
         <v>26</v>
       </c>
@@ -2302,7 +2311,7 @@
       </c>
     </row>
     <row r="9" spans="1:53" ht="16" x14ac:dyDescent="0.35">
-      <c r="A9" s="42"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="12" t="s">
         <v>27</v>
       </c>
@@ -2461,7 +2470,7 @@
       </c>
     </row>
     <row r="10" spans="1:53" ht="16" x14ac:dyDescent="0.35">
-      <c r="A10" s="42"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="12" t="s">
         <v>28</v>
       </c>
@@ -2620,7 +2629,7 @@
       </c>
     </row>
     <row r="11" spans="1:53" ht="16" x14ac:dyDescent="0.35">
-      <c r="A11" s="42"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="12" t="s">
         <v>29</v>
       </c>
@@ -2779,7 +2788,7 @@
       </c>
     </row>
     <row r="12" spans="1:53" ht="16" x14ac:dyDescent="0.35">
-      <c r="A12" s="42"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="12" t="s">
         <v>30</v>
       </c>
@@ -2938,7 +2947,7 @@
       </c>
     </row>
     <row r="13" spans="1:53" ht="32" x14ac:dyDescent="0.35">
-      <c r="A13" s="42"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="12" t="s">
         <v>31</v>
       </c>
@@ -3097,11 +3106,11 @@
       </c>
     </row>
     <row r="14" spans="1:53" ht="16" x14ac:dyDescent="0.35">
-      <c r="A14" s="43"/>
-      <c r="B14" s="44" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="45"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="17">
         <v>1571</v>
       </c>
@@ -3254,7 +3263,7 @@
       </c>
     </row>
     <row r="15" spans="1:53" ht="16" x14ac:dyDescent="0.35">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="44" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -3415,7 +3424,7 @@
       </c>
     </row>
     <row r="16" spans="1:53" ht="32" x14ac:dyDescent="0.35">
-      <c r="A16" s="42"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="12" t="s">
         <v>24</v>
       </c>
@@ -3574,7 +3583,7 @@
       </c>
     </row>
     <row r="17" spans="1:53" ht="16" x14ac:dyDescent="0.35">
-      <c r="A17" s="42"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="12" t="s">
         <v>30</v>
       </c>
@@ -3733,11 +3742,11 @@
       </c>
     </row>
     <row r="18" spans="1:53" ht="16" x14ac:dyDescent="0.35">
-      <c r="A18" s="43"/>
-      <c r="B18" s="44" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="45"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="17">
         <v>26</v>
       </c>
@@ -3890,11 +3899,11 @@
       </c>
     </row>
     <row r="19" spans="1:53" ht="16" x14ac:dyDescent="0.35">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="45"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="20">
         <v>1597</v>
       </c>
@@ -4137,162 +4146,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
       <c r="E1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="64" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="48" t="s">
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
-      <c r="BB1" s="45"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="50"/>
+      <c r="AU1" s="50"/>
+      <c r="AV1" s="50"/>
+      <c r="AW1" s="50"/>
+      <c r="AX1" s="50"/>
+      <c r="AY1" s="50"/>
+      <c r="AZ1" s="50"/>
+      <c r="BA1" s="50"/>
+      <c r="BB1" s="48"/>
     </row>
     <row r="2" spans="1:54" ht="16" x14ac:dyDescent="0.35">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="55" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="55" t="s">
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="47"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="55" t="s">
+      <c r="O2" s="50"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="65" t="s">
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="57" t="s">
+      <c r="V2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="55" t="s">
+      <c r="W2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="55" t="s">
+      <c r="X2" s="50"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="55" t="s">
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="55" t="s">
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="65" t="s">
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="AJ2" s="57" t="s">
+      <c r="AJ2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="AK2" s="48" t="s">
+      <c r="AK2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="48" t="s">
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="45"/>
-      <c r="AS2" s="48" t="s">
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="48"/>
+      <c r="AS2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="AT2" s="47"/>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="45"/>
-      <c r="AW2" s="48" t="s">
+      <c r="AT2" s="50"/>
+      <c r="AU2" s="50"/>
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="47"/>
-      <c r="AZ2" s="45"/>
-      <c r="BA2" s="61" t="s">
+      <c r="AX2" s="50"/>
+      <c r="AY2" s="50"/>
+      <c r="AZ2" s="48"/>
+      <c r="BA2" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="BB2" s="60" t="s">
+      <c r="BB2" s="63" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4357,8 +4366,8 @@
       <c r="T3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="62"/>
-      <c r="V3" s="58"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="61"/>
       <c r="W3" s="9" t="s">
         <v>16</v>
       </c>
@@ -4395,8 +4404,8 @@
       <c r="AH3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AI3" s="62"/>
-      <c r="AJ3" s="58"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="61"/>
       <c r="AK3" s="9" t="s">
         <v>16</v>
       </c>
@@ -4445,17 +4454,17 @@
       <c r="AZ3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA3" s="62"/>
-      <c r="BB3" s="58"/>
+      <c r="BA3" s="65"/>
+      <c r="BB3" s="61"/>
     </row>
     <row r="4" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="44" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -4613,9 +4622,9 @@
       </c>
     </row>
     <row r="5" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="11" t="s">
         <v>30</v>
       </c>
@@ -4771,9 +4780,9 @@
       </c>
     </row>
     <row r="6" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="11" t="s">
         <v>19</v>
       </c>
@@ -4929,9 +4938,9 @@
       </c>
     </row>
     <row r="7" spans="1:54" ht="32" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="41" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="44" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -5089,9 +5098,9 @@
       </c>
     </row>
     <row r="8" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="11" t="s">
         <v>19</v>
       </c>
@@ -5247,9 +5256,9 @@
       </c>
     </row>
     <row r="9" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="41" t="s">
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="44" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -5407,9 +5416,9 @@
       </c>
     </row>
     <row r="10" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="11" t="s">
         <v>29</v>
       </c>
@@ -5565,9 +5574,9 @@
       </c>
     </row>
     <row r="11" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="11" t="s">
         <v>30</v>
       </c>
@@ -5723,9 +5732,9 @@
       </c>
     </row>
     <row r="12" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="11" t="s">
         <v>19</v>
       </c>
@@ -5881,9 +5890,9 @@
       </c>
     </row>
     <row r="13" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="41" t="s">
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="44" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -6041,9 +6050,9 @@
       </c>
     </row>
     <row r="14" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="11" t="s">
         <v>28</v>
       </c>
@@ -6199,9 +6208,9 @@
       </c>
     </row>
     <row r="15" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="11" t="s">
         <v>30</v>
       </c>
@@ -6357,9 +6366,9 @@
       </c>
     </row>
     <row r="16" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="11" t="s">
         <v>19</v>
       </c>
@@ -6515,9 +6524,9 @@
       </c>
     </row>
     <row r="17" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="41" t="s">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="44" t="s">
         <v>40</v>
       </c>
       <c r="D17" s="11" t="s">
@@ -6675,9 +6684,9 @@
       </c>
     </row>
     <row r="18" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="11" t="s">
         <v>30</v>
       </c>
@@ -6833,9 +6842,9 @@
       </c>
     </row>
     <row r="19" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="11" t="s">
         <v>19</v>
       </c>
@@ -6991,9 +7000,9 @@
       </c>
     </row>
     <row r="20" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="41" t="s">
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="44" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -7151,9 +7160,9 @@
       </c>
     </row>
     <row r="21" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="11" t="s">
         <v>29</v>
       </c>
@@ -7309,9 +7318,9 @@
       </c>
     </row>
     <row r="22" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="11" t="s">
         <v>30</v>
       </c>
@@ -7467,9 +7476,9 @@
       </c>
     </row>
     <row r="23" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="11" t="s">
         <v>19</v>
       </c>
@@ -7625,9 +7634,9 @@
       </c>
     </row>
     <row r="24" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="41" t="s">
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="44" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="11" t="s">
@@ -7785,9 +7794,9 @@
       </c>
     </row>
     <row r="25" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="11" t="s">
         <v>28</v>
       </c>
@@ -7943,9 +7952,9 @@
       </c>
     </row>
     <row r="26" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="11" t="s">
         <v>29</v>
       </c>
@@ -8101,9 +8110,9 @@
       </c>
     </row>
     <row r="27" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="43"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
       <c r="D27" s="11" t="s">
         <v>19</v>
       </c>
@@ -8259,9 +8268,9 @@
       </c>
     </row>
     <row r="28" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="41" t="s">
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="44" t="s">
         <v>43</v>
       </c>
       <c r="D28" s="11" t="s">
@@ -8419,9 +8428,9 @@
       </c>
     </row>
     <row r="29" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="11" t="s">
         <v>27</v>
       </c>
@@ -8577,9 +8586,9 @@
       </c>
     </row>
     <row r="30" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
       <c r="D30" s="11" t="s">
         <v>28</v>
       </c>
@@ -8735,9 +8744,9 @@
       </c>
     </row>
     <row r="31" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="11" t="s">
         <v>29</v>
       </c>
@@ -8893,9 +8902,9 @@
       </c>
     </row>
     <row r="32" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="11" t="s">
         <v>30</v>
       </c>
@@ -9051,9 +9060,9 @@
       </c>
     </row>
     <row r="33" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
       <c r="D33" s="11" t="s">
         <v>31</v>
       </c>
@@ -9209,9 +9218,9 @@
       </c>
     </row>
     <row r="34" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="11" t="s">
         <v>19</v>
       </c>
@@ -9367,9 +9376,9 @@
       </c>
     </row>
     <row r="35" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="41" t="s">
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="44" t="s">
         <v>44</v>
       </c>
       <c r="D35" s="11" t="s">
@@ -9527,9 +9536,9 @@
       </c>
     </row>
     <row r="36" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="11" t="s">
         <v>19</v>
       </c>
@@ -9685,9 +9694,9 @@
       </c>
     </row>
     <row r="37" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="41" t="s">
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="44" t="s">
         <v>45</v>
       </c>
       <c r="D37" s="11" t="s">
@@ -9845,9 +9854,9 @@
       </c>
     </row>
     <row r="38" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
       <c r="D38" s="11" t="s">
         <v>28</v>
       </c>
@@ -10003,9 +10012,9 @@
       </c>
     </row>
     <row r="39" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
       <c r="D39" s="11" t="s">
         <v>29</v>
       </c>
@@ -10161,9 +10170,9 @@
       </c>
     </row>
     <row r="40" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A40" s="42"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
       <c r="D40" s="11" t="s">
         <v>30</v>
       </c>
@@ -10319,9 +10328,9 @@
       </c>
     </row>
     <row r="41" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A41" s="42"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="43"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="46"/>
       <c r="D41" s="11" t="s">
         <v>19</v>
       </c>
@@ -10477,9 +10486,9 @@
       </c>
     </row>
     <row r="42" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A42" s="42"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="41" t="s">
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="44" t="s">
         <v>46</v>
       </c>
       <c r="D42" s="11" t="s">
@@ -10637,9 +10646,9 @@
       </c>
     </row>
     <row r="43" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A43" s="42"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
       <c r="D43" s="11" t="s">
         <v>28</v>
       </c>
@@ -10795,9 +10804,9 @@
       </c>
     </row>
     <row r="44" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A44" s="42"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
       <c r="D44" s="11" t="s">
         <v>29</v>
       </c>
@@ -10953,9 +10962,9 @@
       </c>
     </row>
     <row r="45" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A45" s="42"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="43"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="46"/>
       <c r="D45" s="11" t="s">
         <v>19</v>
       </c>
@@ -11111,9 +11120,9 @@
       </c>
     </row>
     <row r="46" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A46" s="42"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="41" t="s">
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="44" t="s">
         <v>47</v>
       </c>
       <c r="D46" s="11" t="s">
@@ -11271,9 +11280,9 @@
       </c>
     </row>
     <row r="47" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A47" s="42"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
       <c r="D47" s="11" t="s">
         <v>29</v>
       </c>
@@ -11429,9 +11438,9 @@
       </c>
     </row>
     <row r="48" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A48" s="42"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
       <c r="D48" s="11" t="s">
         <v>30</v>
       </c>
@@ -11587,9 +11596,9 @@
       </c>
     </row>
     <row r="49" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A49" s="42"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="43"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="46"/>
       <c r="D49" s="11" t="s">
         <v>19</v>
       </c>
@@ -11745,9 +11754,9 @@
       </c>
     </row>
     <row r="50" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A50" s="42"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="41" t="s">
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="44" t="s">
         <v>48</v>
       </c>
       <c r="D50" s="11" t="s">
@@ -11905,9 +11914,9 @@
       </c>
     </row>
     <row r="51" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A51" s="42"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
       <c r="D51" s="11" t="s">
         <v>28</v>
       </c>
@@ -12063,9 +12072,9 @@
       </c>
     </row>
     <row r="52" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A52" s="42"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
       <c r="D52" s="11" t="s">
         <v>29</v>
       </c>
@@ -12221,9 +12230,9 @@
       </c>
     </row>
     <row r="53" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A53" s="42"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="43"/>
+      <c r="A53" s="45"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="46"/>
       <c r="D53" s="11" t="s">
         <v>19</v>
       </c>
@@ -12379,9 +12388,9 @@
       </c>
     </row>
     <row r="54" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A54" s="42"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="41" t="s">
+      <c r="A54" s="45"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="44" t="s">
         <v>49</v>
       </c>
       <c r="D54" s="11" t="s">
@@ -12539,9 +12548,9 @@
       </c>
     </row>
     <row r="55" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A55" s="42"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
+      <c r="A55" s="45"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
       <c r="D55" s="11" t="s">
         <v>29</v>
       </c>
@@ -12697,9 +12706,9 @@
       </c>
     </row>
     <row r="56" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A56" s="42"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
+      <c r="A56" s="45"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
       <c r="D56" s="11" t="s">
         <v>30</v>
       </c>
@@ -12855,9 +12864,9 @@
       </c>
     </row>
     <row r="57" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A57" s="42"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="43"/>
+      <c r="A57" s="45"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="46"/>
       <c r="D57" s="11" t="s">
         <v>19</v>
       </c>
@@ -13013,12 +13022,12 @@
       </c>
     </row>
     <row r="58" spans="1:54" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="42"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="41" t="s">
+      <c r="A58" s="45"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="45"/>
+      <c r="D58" s="48"/>
       <c r="E58" s="14">
         <v>1509</v>
       </c>
@@ -13171,7 +13180,7 @@
       </c>
     </row>
     <row r="59" spans="1:54" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="42"/>
+      <c r="A59" s="45"/>
       <c r="B59" s="33" t="s">
         <v>1</v>
       </c>
@@ -13333,11 +13342,11 @@
       </c>
     </row>
     <row r="60" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A60" s="42"/>
-      <c r="B60" s="41" t="s">
+      <c r="A60" s="45"/>
+      <c r="B60" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="C60" s="41" t="s">
+      <c r="C60" s="44" t="s">
         <v>36</v>
       </c>
       <c r="D60" s="11" t="s">
@@ -13495,9 +13504,9 @@
       </c>
     </row>
     <row r="61" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A61" s="42"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="43"/>
+      <c r="A61" s="45"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="46"/>
       <c r="D61" s="11" t="s">
         <v>19</v>
       </c>
@@ -13653,9 +13662,9 @@
       </c>
     </row>
     <row r="62" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A62" s="42"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="41" t="s">
+      <c r="A62" s="45"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="44" t="s">
         <v>37</v>
       </c>
       <c r="D62" s="11" t="s">
@@ -13813,9 +13822,9 @@
       </c>
     </row>
     <row r="63" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A63" s="42"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="43"/>
+      <c r="A63" s="45"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="46"/>
       <c r="D63" s="11" t="s">
         <v>19</v>
       </c>
@@ -13971,9 +13980,9 @@
       </c>
     </row>
     <row r="64" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A64" s="42"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="41" t="s">
+      <c r="A64" s="45"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="44" t="s">
         <v>38</v>
       </c>
       <c r="D64" s="11" t="s">
@@ -14131,9 +14140,9 @@
       </c>
     </row>
     <row r="65" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A65" s="42"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="43"/>
+      <c r="A65" s="45"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="46"/>
       <c r="D65" s="11" t="s">
         <v>19</v>
       </c>
@@ -14289,9 +14298,9 @@
       </c>
     </row>
     <row r="66" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A66" s="42"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="41" t="s">
+      <c r="A66" s="45"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="44" t="s">
         <v>39</v>
       </c>
       <c r="D66" s="11" t="s">
@@ -14449,9 +14458,9 @@
       </c>
     </row>
     <row r="67" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A67" s="42"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="43"/>
+      <c r="A67" s="45"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="46"/>
       <c r="D67" s="11" t="s">
         <v>19</v>
       </c>
@@ -14607,9 +14616,9 @@
       </c>
     </row>
     <row r="68" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A68" s="42"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="41" t="s">
+      <c r="A68" s="45"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="44" t="s">
         <v>40</v>
       </c>
       <c r="D68" s="11" t="s">
@@ -14767,9 +14776,9 @@
       </c>
     </row>
     <row r="69" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A69" s="42"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="43"/>
+      <c r="A69" s="45"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="46"/>
       <c r="D69" s="11" t="s">
         <v>19</v>
       </c>
@@ -14925,9 +14934,9 @@
       </c>
     </row>
     <row r="70" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A70" s="42"/>
-      <c r="B70" s="42"/>
-      <c r="C70" s="41" t="s">
+      <c r="A70" s="45"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="44" t="s">
         <v>43</v>
       </c>
       <c r="D70" s="11" t="s">
@@ -15085,9 +15094,9 @@
       </c>
     </row>
     <row r="71" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A71" s="42"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="43"/>
+      <c r="A71" s="45"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="46"/>
       <c r="D71" s="11" t="s">
         <v>19</v>
       </c>
@@ -15243,9 +15252,9 @@
       </c>
     </row>
     <row r="72" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A72" s="42"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="41" t="s">
+      <c r="A72" s="45"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="44" t="s">
         <v>45</v>
       </c>
       <c r="D72" s="11" t="s">
@@ -15403,9 +15412,9 @@
       </c>
     </row>
     <row r="73" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A73" s="42"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
+      <c r="A73" s="45"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="45"/>
       <c r="D73" s="11" t="s">
         <v>24</v>
       </c>
@@ -15561,9 +15570,9 @@
       </c>
     </row>
     <row r="74" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A74" s="42"/>
-      <c r="B74" s="42"/>
-      <c r="C74" s="43"/>
+      <c r="A74" s="45"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="46"/>
       <c r="D74" s="11" t="s">
         <v>19</v>
       </c>
@@ -15719,9 +15728,9 @@
       </c>
     </row>
     <row r="75" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A75" s="42"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="41" t="s">
+      <c r="A75" s="45"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="44" t="s">
         <v>47</v>
       </c>
       <c r="D75" s="11" t="s">
@@ -15879,9 +15888,9 @@
       </c>
     </row>
     <row r="76" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A76" s="42"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="43"/>
+      <c r="A76" s="45"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="46"/>
       <c r="D76" s="11" t="s">
         <v>19</v>
       </c>
@@ -16037,9 +16046,9 @@
       </c>
     </row>
     <row r="77" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A77" s="42"/>
-      <c r="B77" s="42"/>
-      <c r="C77" s="41" t="s">
+      <c r="A77" s="45"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="44" t="s">
         <v>49</v>
       </c>
       <c r="D77" s="11" t="s">
@@ -16197,9 +16206,9 @@
       </c>
     </row>
     <row r="78" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A78" s="42"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="43"/>
+      <c r="A78" s="45"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="46"/>
       <c r="D78" s="11" t="s">
         <v>19</v>
       </c>
@@ -16355,12 +16364,12 @@
       </c>
     </row>
     <row r="79" spans="1:54" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="42"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="41" t="s">
+      <c r="A79" s="45"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D79" s="45"/>
+      <c r="D79" s="48"/>
       <c r="E79" s="14">
         <v>62</v>
       </c>
@@ -16513,7 +16522,7 @@
       </c>
     </row>
     <row r="80" spans="1:54" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="42"/>
+      <c r="A80" s="45"/>
       <c r="B80" s="33" t="s">
         <v>1</v>
       </c>
@@ -16675,12 +16684,12 @@
       </c>
     </row>
     <row r="81" spans="1:54" ht="16" x14ac:dyDescent="0.35">
-      <c r="A81" s="43"/>
-      <c r="B81" s="59" t="s">
+      <c r="A81" s="46"/>
+      <c r="B81" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="47"/>
-      <c r="D81" s="45"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="48"/>
       <c r="E81" s="14">
         <v>1571</v>
       </c>
@@ -16997,13 +17006,13 @@
       </c>
     </row>
     <row r="83" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A83" s="41" t="s">
+      <c r="A83" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B83" s="41" t="s">
+      <c r="B83" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C83" s="41" t="s">
+      <c r="C83" s="44" t="s">
         <v>51</v>
       </c>
       <c r="D83" s="11" t="s">
@@ -17161,9 +17170,9 @@
       </c>
     </row>
     <row r="84" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A84" s="42"/>
-      <c r="B84" s="42"/>
-      <c r="C84" s="43"/>
+      <c r="A84" s="45"/>
+      <c r="B84" s="45"/>
+      <c r="C84" s="46"/>
       <c r="D84" s="11" t="s">
         <v>19</v>
       </c>
@@ -17319,12 +17328,12 @@
       </c>
     </row>
     <row r="85" spans="1:54" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="42"/>
-      <c r="B85" s="43"/>
-      <c r="C85" s="41" t="s">
+      <c r="A85" s="45"/>
+      <c r="B85" s="46"/>
+      <c r="C85" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D85" s="45"/>
+      <c r="D85" s="48"/>
       <c r="E85" s="14">
         <v>26</v>
       </c>
@@ -17477,7 +17486,7 @@
       </c>
     </row>
     <row r="86" spans="1:54" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="42"/>
+      <c r="A86" s="45"/>
       <c r="B86" s="33" t="s">
         <v>1</v>
       </c>
@@ -17639,11 +17648,11 @@
       </c>
     </row>
     <row r="87" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A87" s="42"/>
-      <c r="B87" s="41" t="s">
+      <c r="A87" s="45"/>
+      <c r="B87" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="C87" s="41" t="s">
+      <c r="C87" s="44" t="s">
         <v>51</v>
       </c>
       <c r="D87" s="11" t="s">
@@ -17801,9 +17810,9 @@
       </c>
     </row>
     <row r="88" spans="1:54" ht="16" outlineLevel="3" x14ac:dyDescent="0.35">
-      <c r="A88" s="42"/>
-      <c r="B88" s="42"/>
-      <c r="C88" s="42"/>
+      <c r="A88" s="45"/>
+      <c r="B88" s="45"/>
+      <c r="C88" s="45"/>
       <c r="D88" s="11" t="s">
         <v>24</v>
       </c>
@@ -17959,9 +17968,9 @@
       </c>
     </row>
     <row r="89" spans="1:54" ht="16" outlineLevel="2" x14ac:dyDescent="0.35">
-      <c r="A89" s="42"/>
-      <c r="B89" s="42"/>
-      <c r="C89" s="43"/>
+      <c r="A89" s="45"/>
+      <c r="B89" s="45"/>
+      <c r="C89" s="46"/>
       <c r="D89" s="11" t="s">
         <v>19</v>
       </c>
@@ -18117,12 +18126,12 @@
       </c>
     </row>
     <row r="90" spans="1:54" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="42"/>
-      <c r="B90" s="43"/>
-      <c r="C90" s="41" t="s">
+      <c r="A90" s="45"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D90" s="45"/>
+      <c r="D90" s="48"/>
       <c r="E90" s="14">
         <v>0</v>
       </c>
@@ -18275,7 +18284,7 @@
       </c>
     </row>
     <row r="91" spans="1:54" ht="16" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="42"/>
+      <c r="A91" s="45"/>
       <c r="B91" s="33" t="s">
         <v>1</v>
       </c>
@@ -18437,12 +18446,12 @@
       </c>
     </row>
     <row r="92" spans="1:54" ht="16" x14ac:dyDescent="0.35">
-      <c r="A92" s="43"/>
-      <c r="B92" s="59" t="s">
+      <c r="A92" s="46"/>
+      <c r="B92" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C92" s="47"/>
-      <c r="D92" s="45"/>
+      <c r="C92" s="50"/>
+      <c r="D92" s="48"/>
       <c r="E92" s="14">
         <v>26</v>
       </c>
@@ -18759,12 +18768,12 @@
       </c>
     </row>
     <row r="94" spans="1:54" ht="16" x14ac:dyDescent="0.35">
-      <c r="A94" s="46" t="s">
+      <c r="A94" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B94" s="47"/>
-      <c r="C94" s="47"/>
-      <c r="D94" s="45"/>
+      <c r="B94" s="50"/>
+      <c r="C94" s="50"/>
+      <c r="D94" s="48"/>
       <c r="E94" s="20">
         <v>1597</v>
       </c>
@@ -18994,10 +19003,10 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="3" x14ac:dyDescent="0.35"/>
@@ -19013,39 +19022,40 @@
     <col min="10" max="10" width="13.54296875" customWidth="1"/>
     <col min="11" max="11" width="13.453125" customWidth="1"/>
     <col min="12" max="12" width="13.54296875" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" customWidth="1"/>
-    <col min="14" max="14" width="13.54296875" customWidth="1"/>
-    <col min="15" max="16" width="13.453125" customWidth="1"/>
-    <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="13.453125" customWidth="1"/>
+    <col min="15" max="15" width="13.54296875" customWidth="1"/>
+    <col min="16" max="17" width="13.453125" customWidth="1"/>
+    <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="72"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="67" t="s">
+    <row r="1" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="67" t="s">
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="67" t="s">
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="67" t="s">
+      <c r="M1" s="75"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-    </row>
-    <row r="2" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+    </row>
+    <row r="2" spans="1:17" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
         <v>33</v>
       </c>
@@ -19058,7 +19068,7 @@
       <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="41" t="s">
         <v>52</v>
       </c>
       <c r="F2" s="39" t="s">
@@ -19086,29 +19096,32 @@
         <v>17</v>
       </c>
       <c r="N2" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="P2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="Q2" s="39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="42" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="71">
+      <c r="E3" s="43">
         <v>4</v>
       </c>
       <c r="F3" s="39">
@@ -19136,29 +19149,32 @@
         <v>1</v>
       </c>
       <c r="N3" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="39">
+        <v>1</v>
+      </c>
+      <c r="P3" s="39">
         <v>3</v>
       </c>
-      <c r="P3" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q3" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="42" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="43">
         <v>5</v>
       </c>
       <c r="F4" s="39">
@@ -19186,16 +19202,19 @@
         <v>1</v>
       </c>
       <c r="N4" s="39">
+        <v>0</v>
+      </c>
+      <c r="O4" s="39">
         <v>10</v>
       </c>
-      <c r="O4" s="39">
+      <c r="P4" s="39">
         <v>3</v>
       </c>
-      <c r="P4" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q4" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
         <v>21</v>
       </c>
@@ -19208,7 +19227,7 @@
       <c r="D5" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="43">
         <v>0</v>
       </c>
       <c r="F5" s="39">
@@ -19244,21 +19263,24 @@
       <c r="P5" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q5" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A6" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="43">
         <v>7</v>
       </c>
       <c r="F6" s="39">
@@ -19286,29 +19308,32 @@
         <v>0</v>
       </c>
       <c r="N6" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="39">
+        <v>1</v>
+      </c>
+      <c r="P6" s="39">
         <v>2</v>
       </c>
-      <c r="P6" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q6" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A7" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="43">
         <v>20</v>
       </c>
       <c r="F7" s="39">
@@ -19336,29 +19361,32 @@
         <v>2</v>
       </c>
       <c r="N7" s="39">
+        <v>0</v>
+      </c>
+      <c r="O7" s="39">
         <v>10</v>
       </c>
-      <c r="O7" s="39">
+      <c r="P7" s="39">
         <v>3</v>
       </c>
-      <c r="P7" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q7" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A8" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="43">
         <v>24</v>
       </c>
       <c r="F8" s="39">
@@ -19386,29 +19414,32 @@
         <v>6</v>
       </c>
       <c r="N8" s="39">
+        <v>0</v>
+      </c>
+      <c r="O8" s="39">
         <v>34</v>
       </c>
-      <c r="O8" s="39">
+      <c r="P8" s="39">
         <v>9</v>
       </c>
-      <c r="P8" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q8" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A9" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="42" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="43">
         <v>0</v>
       </c>
       <c r="F9" s="39">
@@ -19436,29 +19467,32 @@
         <v>0</v>
       </c>
       <c r="N9" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q9" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A10" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="42" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="43">
         <v>6</v>
       </c>
       <c r="F10" s="39">
@@ -19489,26 +19523,29 @@
         <v>0</v>
       </c>
       <c r="O10" s="39">
+        <v>0</v>
+      </c>
+      <c r="P10" s="39">
         <v>4</v>
       </c>
-      <c r="P10" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q10" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A11" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="42" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="71">
+      <c r="E11" s="43">
         <v>8</v>
       </c>
       <c r="F11" s="39">
@@ -19536,29 +19573,32 @@
         <v>3</v>
       </c>
       <c r="N11" s="39">
+        <v>0</v>
+      </c>
+      <c r="O11" s="39">
         <v>7</v>
       </c>
-      <c r="O11" s="39">
+      <c r="P11" s="39">
         <v>6</v>
       </c>
-      <c r="P11" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q11" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A12" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="42" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="43">
         <v>0</v>
       </c>
       <c r="F12" s="39">
@@ -19594,21 +19634,24 @@
       <c r="P12" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q12" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A13" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="42" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="71">
+      <c r="E13" s="43">
         <v>4</v>
       </c>
       <c r="F13" s="39">
@@ -19636,29 +19679,32 @@
         <v>2</v>
       </c>
       <c r="N13" s="39">
+        <v>0</v>
+      </c>
+      <c r="O13" s="39">
         <v>4</v>
       </c>
-      <c r="O13" s="39">
+      <c r="P13" s="39">
         <v>2</v>
       </c>
-      <c r="P13" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q13" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A14" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="42" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="71">
+      <c r="E14" s="43">
         <v>8</v>
       </c>
       <c r="F14" s="39">
@@ -19686,29 +19732,32 @@
         <v>0</v>
       </c>
       <c r="N14" s="39">
+        <v>0</v>
+      </c>
+      <c r="O14" s="39">
         <v>5</v>
       </c>
-      <c r="O14" s="39">
-        <v>0</v>
-      </c>
       <c r="P14" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q14" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A15" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="42" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="71">
+      <c r="E15" s="43">
         <v>11</v>
       </c>
       <c r="F15" s="39">
@@ -19736,29 +19785,32 @@
         <v>1</v>
       </c>
       <c r="N15" s="39">
+        <v>0</v>
+      </c>
+      <c r="O15" s="39">
         <v>6</v>
       </c>
-      <c r="O15" s="39">
+      <c r="P15" s="39">
         <v>2</v>
       </c>
-      <c r="P15" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q15" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A16" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="42" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="71">
+      <c r="E16" s="43">
         <v>2</v>
       </c>
       <c r="F16" s="39">
@@ -19786,29 +19838,32 @@
         <v>0</v>
       </c>
       <c r="N16" s="39">
+        <v>0</v>
+      </c>
+      <c r="O16" s="39">
         <v>9</v>
       </c>
-      <c r="O16" s="39">
-        <v>1</v>
-      </c>
       <c r="P16" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A17" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="71">
+      <c r="E17" s="43">
         <v>20</v>
       </c>
       <c r="F17" s="39">
@@ -19836,29 +19891,32 @@
         <v>0</v>
       </c>
       <c r="N17" s="39">
+        <v>0</v>
+      </c>
+      <c r="O17" s="39">
         <v>13</v>
       </c>
-      <c r="O17" s="39">
-        <v>0</v>
-      </c>
       <c r="P17" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q17" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A18" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="71">
+      <c r="E18" s="43">
         <v>53</v>
       </c>
       <c r="F18" s="39">
@@ -19886,29 +19944,32 @@
         <v>2</v>
       </c>
       <c r="N18" s="39">
+        <v>0</v>
+      </c>
+      <c r="O18" s="39">
         <v>45</v>
       </c>
-      <c r="O18" s="39">
+      <c r="P18" s="39">
         <v>7</v>
       </c>
-      <c r="P18" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q18" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A19" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="71">
+      <c r="E19" s="43">
         <v>0</v>
       </c>
       <c r="F19" s="39">
@@ -19936,29 +19997,32 @@
         <v>0</v>
       </c>
       <c r="N19" s="39">
+        <v>0</v>
+      </c>
+      <c r="O19" s="39">
         <v>14</v>
       </c>
-      <c r="O19" s="39">
-        <v>0</v>
-      </c>
       <c r="P19" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q19" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A20" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="42" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="71">
+      <c r="E20" s="43">
         <v>0</v>
       </c>
       <c r="F20" s="39">
@@ -19986,29 +20050,32 @@
         <v>0</v>
       </c>
       <c r="N20" s="39">
+        <v>0</v>
+      </c>
+      <c r="O20" s="39">
         <v>3</v>
       </c>
-      <c r="O20" s="39">
-        <v>0</v>
-      </c>
       <c r="P20" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A21" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="42" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="71">
+      <c r="E21" s="43">
         <v>0</v>
       </c>
       <c r="F21" s="39">
@@ -20036,29 +20103,32 @@
         <v>0</v>
       </c>
       <c r="N21" s="39">
+        <v>0</v>
+      </c>
+      <c r="O21" s="39">
         <v>26</v>
       </c>
-      <c r="O21" s="39">
-        <v>0</v>
-      </c>
       <c r="P21" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q21" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A22" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="42" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="71">
+      <c r="E22" s="43">
         <v>1</v>
       </c>
       <c r="F22" s="39">
@@ -20094,21 +20164,24 @@
       <c r="P22" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q22" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A23" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="42" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="71">
+      <c r="E23" s="43">
         <v>7</v>
       </c>
       <c r="F23" s="39">
@@ -20136,29 +20209,32 @@
         <v>5</v>
       </c>
       <c r="N23" s="39">
+        <v>0</v>
+      </c>
+      <c r="O23" s="39">
         <v>5</v>
       </c>
-      <c r="O23" s="39">
+      <c r="P23" s="39">
         <v>6</v>
       </c>
-      <c r="P23" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q23" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A24" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="42" t="s">
         <v>43</v>
       </c>
       <c r="D24" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="71">
+      <c r="E24" s="43">
         <v>14</v>
       </c>
       <c r="F24" s="39">
@@ -20186,29 +20262,32 @@
         <v>4</v>
       </c>
       <c r="N24" s="39">
+        <v>0</v>
+      </c>
+      <c r="O24" s="39">
         <v>22</v>
       </c>
-      <c r="O24" s="39">
+      <c r="P24" s="39">
         <v>15</v>
       </c>
-      <c r="P24" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q24" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A25" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="42" t="s">
         <v>43</v>
       </c>
       <c r="D25" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="71">
+      <c r="E25" s="43">
         <v>0</v>
       </c>
       <c r="F25" s="39">
@@ -20244,8 +20323,11 @@
       <c r="P25" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q25" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A26" s="40" t="s">
         <v>21</v>
       </c>
@@ -20258,7 +20340,7 @@
       <c r="D26" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="71">
+      <c r="E26" s="43">
         <v>1</v>
       </c>
       <c r="F26" s="39">
@@ -20294,21 +20376,24 @@
       <c r="P26" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q26" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A27" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D27" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="71">
+      <c r="E27" s="43">
         <v>22</v>
       </c>
       <c r="F27" s="39">
@@ -20336,29 +20421,32 @@
         <v>0</v>
       </c>
       <c r="N27" s="39">
+        <v>0</v>
+      </c>
+      <c r="O27" s="39">
         <v>47</v>
       </c>
-      <c r="O27" s="39">
-        <v>0</v>
-      </c>
       <c r="P27" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q27" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A28" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="70" t="s">
+      <c r="C28" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D28" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="71">
+      <c r="E28" s="43">
         <v>0</v>
       </c>
       <c r="F28" s="39">
@@ -20386,29 +20474,32 @@
         <v>1</v>
       </c>
       <c r="N28" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="39">
+        <v>1</v>
+      </c>
+      <c r="P28" s="39">
         <v>2</v>
       </c>
-      <c r="P28" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q28" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A29" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D29" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="71">
+      <c r="E29" s="43">
         <v>1</v>
       </c>
       <c r="F29" s="39">
@@ -20444,21 +20535,24 @@
       <c r="P29" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q29" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A30" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="C30" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D30" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="71">
+      <c r="E30" s="43">
         <v>10</v>
       </c>
       <c r="F30" s="39">
@@ -20486,29 +20580,32 @@
         <v>4</v>
       </c>
       <c r="N30" s="39">
+        <v>0</v>
+      </c>
+      <c r="O30" s="39">
         <v>13</v>
       </c>
-      <c r="O30" s="39">
+      <c r="P30" s="39">
         <v>5</v>
       </c>
-      <c r="P30" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q30" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A31" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B31" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="42" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="71">
+      <c r="E31" s="43">
         <v>24</v>
       </c>
       <c r="F31" s="39">
@@ -20536,29 +20633,32 @@
         <v>0</v>
       </c>
       <c r="N31" s="39">
+        <v>0</v>
+      </c>
+      <c r="O31" s="39">
         <v>21</v>
       </c>
-      <c r="O31" s="39">
+      <c r="P31" s="39">
         <v>2</v>
       </c>
-      <c r="P31" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q31" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A32" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="70" t="s">
+      <c r="C32" s="42" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="71">
+      <c r="E32" s="43">
         <v>6</v>
       </c>
       <c r="F32" s="39">
@@ -20586,29 +20686,32 @@
         <v>1</v>
       </c>
       <c r="N32" s="39">
+        <v>0</v>
+      </c>
+      <c r="O32" s="39">
         <v>7</v>
       </c>
-      <c r="O32" s="39">
+      <c r="P32" s="39">
         <v>2</v>
       </c>
-      <c r="P32" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q32" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A33" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="70" t="s">
+      <c r="C33" s="42" t="s">
         <v>46</v>
       </c>
       <c r="D33" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="71">
+      <c r="E33" s="43">
         <v>1138</v>
       </c>
       <c r="F33" s="39">
@@ -20636,29 +20739,32 @@
         <v>67</v>
       </c>
       <c r="N33" s="39">
+        <v>0</v>
+      </c>
+      <c r="O33" s="39">
         <v>738</v>
       </c>
-      <c r="O33" s="39">
+      <c r="P33" s="39">
         <v>56</v>
       </c>
-      <c r="P33" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q33" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A34" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="70" t="s">
+      <c r="C34" s="42" t="s">
         <v>47</v>
       </c>
       <c r="D34" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="71">
+      <c r="E34" s="43">
         <v>1</v>
       </c>
       <c r="F34" s="39">
@@ -20689,26 +20795,29 @@
         <v>0</v>
       </c>
       <c r="O34" s="39">
+        <v>0</v>
+      </c>
+      <c r="P34" s="39">
         <v>3</v>
       </c>
-      <c r="P34" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q34" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A35" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B35" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="70" t="s">
+      <c r="C35" s="42" t="s">
         <v>47</v>
       </c>
       <c r="D35" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="71">
+      <c r="E35" s="43">
         <v>0</v>
       </c>
       <c r="F35" s="39">
@@ -20736,29 +20845,32 @@
         <v>4</v>
       </c>
       <c r="N35" s="39">
+        <v>0</v>
+      </c>
+      <c r="O35" s="39">
         <v>2</v>
       </c>
-      <c r="O35" s="39">
-        <v>0</v>
-      </c>
       <c r="P35" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q35" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A36" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B36" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="70" t="s">
+      <c r="C36" s="42" t="s">
         <v>47</v>
       </c>
       <c r="D36" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="71">
+      <c r="E36" s="43">
         <v>52</v>
       </c>
       <c r="F36" s="39">
@@ -20786,29 +20898,32 @@
         <v>19</v>
       </c>
       <c r="N36" s="39">
+        <v>0</v>
+      </c>
+      <c r="O36" s="39">
         <v>35</v>
       </c>
-      <c r="O36" s="39">
+      <c r="P36" s="39">
         <v>19</v>
       </c>
-      <c r="P36" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q36" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A37" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B37" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="70" t="s">
+      <c r="C37" s="42" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="71">
+      <c r="E37" s="43">
         <v>0</v>
       </c>
       <c r="F37" s="39">
@@ -20844,21 +20959,24 @@
       <c r="P37" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q37" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A38" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="70" t="s">
+      <c r="C38" s="42" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="71">
+      <c r="E38" s="43">
         <v>0</v>
       </c>
       <c r="F38" s="39">
@@ -20894,21 +21012,24 @@
       <c r="P38" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q38" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A39" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B39" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="70" t="s">
+      <c r="C39" s="42" t="s">
         <v>48</v>
       </c>
       <c r="D39" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="71">
+      <c r="E39" s="43">
         <v>32</v>
       </c>
       <c r="F39" s="39">
@@ -20939,26 +21060,29 @@
         <v>0</v>
       </c>
       <c r="O39" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A40" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B40" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="70" t="s">
+      <c r="C40" s="42" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="71">
+      <c r="E40" s="43">
         <v>5</v>
       </c>
       <c r="F40" s="39">
@@ -20986,29 +21110,32 @@
         <v>2</v>
       </c>
       <c r="N40" s="39">
+        <v>0</v>
+      </c>
+      <c r="O40" s="39">
         <v>2</v>
       </c>
-      <c r="O40" s="39">
-        <v>0</v>
-      </c>
       <c r="P40" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q40" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A41" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B41" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="70" t="s">
+      <c r="C41" s="42" t="s">
         <v>49</v>
       </c>
       <c r="D41" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="71">
+      <c r="E41" s="43">
         <v>4</v>
       </c>
       <c r="F41" s="39">
@@ -21036,29 +21163,32 @@
         <v>2</v>
       </c>
       <c r="N41" s="39">
+        <v>0</v>
+      </c>
+      <c r="O41" s="39">
         <v>3</v>
       </c>
-      <c r="O41" s="39">
-        <v>0</v>
-      </c>
       <c r="P41" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q41" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A42" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="70" t="s">
+      <c r="C42" s="42" t="s">
         <v>49</v>
       </c>
       <c r="D42" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="71">
+      <c r="E42" s="43">
         <v>19</v>
       </c>
       <c r="F42" s="39">
@@ -21086,16 +21216,19 @@
         <v>6</v>
       </c>
       <c r="N42" s="39">
+        <v>0</v>
+      </c>
+      <c r="O42" s="39">
         <v>33</v>
       </c>
-      <c r="O42" s="39">
+      <c r="P42" s="39">
         <v>7</v>
       </c>
-      <c r="P42" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q42" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A43" s="40" t="s">
         <v>21</v>
       </c>
@@ -21108,7 +21241,7 @@
       <c r="D43" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="71">
+      <c r="E43" s="43">
         <v>3</v>
       </c>
       <c r="F43" s="39">
@@ -21136,16 +21269,19 @@
         <v>2</v>
       </c>
       <c r="N43" s="39">
+        <v>0</v>
+      </c>
+      <c r="O43" s="39">
         <v>4</v>
       </c>
-      <c r="O43" s="39">
+      <c r="P43" s="39">
         <v>2</v>
       </c>
-      <c r="P43" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q43" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A44" s="40" t="s">
         <v>21</v>
       </c>
@@ -21158,7 +21294,7 @@
       <c r="D44" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="71">
+      <c r="E44" s="43">
         <v>17</v>
       </c>
       <c r="F44" s="39">
@@ -21186,16 +21322,19 @@
         <v>18</v>
       </c>
       <c r="N44" s="39">
+        <v>0</v>
+      </c>
+      <c r="O44" s="39">
         <v>5</v>
       </c>
-      <c r="O44" s="39">
+      <c r="P44" s="39">
         <v>9</v>
       </c>
-      <c r="P44" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q44" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A45" s="40" t="s">
         <v>21</v>
       </c>
@@ -21208,7 +21347,7 @@
       <c r="D45" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="71">
+      <c r="E45" s="43">
         <v>6</v>
       </c>
       <c r="F45" s="39">
@@ -21236,16 +21375,19 @@
         <v>1</v>
       </c>
       <c r="N45" s="39">
+        <v>0</v>
+      </c>
+      <c r="O45" s="39">
         <v>4</v>
       </c>
-      <c r="O45" s="39">
-        <v>1</v>
-      </c>
       <c r="P45" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A46" s="40" t="s">
         <v>21</v>
       </c>
@@ -21258,7 +21400,7 @@
       <c r="D46" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="71">
+      <c r="E46" s="43">
         <v>2</v>
       </c>
       <c r="F46" s="39">
@@ -21294,8 +21436,11 @@
       <c r="P46" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q46" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A47" s="40" t="s">
         <v>21</v>
       </c>
@@ -21308,7 +21453,7 @@
       <c r="D47" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="71">
+      <c r="E47" s="43">
         <v>0</v>
       </c>
       <c r="F47" s="39">
@@ -21344,8 +21489,11 @@
       <c r="P47" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q47" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A48" s="40" t="s">
         <v>21</v>
       </c>
@@ -21358,7 +21506,7 @@
       <c r="D48" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="71">
+      <c r="E48" s="43">
         <v>9</v>
       </c>
       <c r="F48" s="39">
@@ -21386,29 +21534,32 @@
         <v>10</v>
       </c>
       <c r="N48" s="39">
+        <v>0</v>
+      </c>
+      <c r="O48" s="39">
         <v>5</v>
       </c>
-      <c r="O48" s="39">
+      <c r="P48" s="39">
         <v>4</v>
       </c>
-      <c r="P48" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q48" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A49" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B49" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="70" t="s">
+      <c r="C49" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D49" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E49" s="71">
+      <c r="E49" s="43">
         <v>4</v>
       </c>
       <c r="F49" s="39">
@@ -21436,29 +21587,32 @@
         <v>0</v>
       </c>
       <c r="N49" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49" s="39">
         <v>1</v>
       </c>
       <c r="P49" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A50" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B50" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="70" t="s">
+      <c r="C50" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D50" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="71">
+      <c r="E50" s="43">
         <v>3</v>
       </c>
       <c r="F50" s="39">
@@ -21489,13 +21643,16 @@
         <v>0</v>
       </c>
       <c r="O50" s="39">
+        <v>0</v>
+      </c>
+      <c r="P50" s="39">
         <v>2</v>
       </c>
-      <c r="P50" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q50" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A51" s="40" t="s">
         <v>21</v>
       </c>
@@ -21508,7 +21665,7 @@
       <c r="D51" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="71">
+      <c r="E51" s="43">
         <v>13</v>
       </c>
       <c r="F51" s="39">
@@ -21536,16 +21693,19 @@
         <v>5</v>
       </c>
       <c r="N51" s="39">
+        <v>0</v>
+      </c>
+      <c r="O51" s="39">
         <v>5</v>
       </c>
-      <c r="O51" s="39">
+      <c r="P51" s="39">
         <v>9</v>
       </c>
-      <c r="P51" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q51" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A52" s="40" t="s">
         <v>21</v>
       </c>
@@ -21558,7 +21718,7 @@
       <c r="D52" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="71">
+      <c r="E52" s="43">
         <v>5</v>
       </c>
       <c r="F52" s="39">
@@ -21586,24 +21746,27 @@
         <v>2</v>
       </c>
       <c r="N52" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="Q52" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="1.2374015748031499" header="0.78740157480314998" footer="0.78740157480314998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -21618,10 +21781,10 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="3" x14ac:dyDescent="0.35"/>
@@ -21637,13 +21800,13 @@
     <col min="10" max="10" width="13.54296875" customWidth="1"/>
     <col min="11" max="11" width="13.453125" customWidth="1"/>
     <col min="12" max="12" width="13.54296875" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" customWidth="1"/>
-    <col min="14" max="14" width="13.54296875" customWidth="1"/>
-    <col min="15" max="16" width="13.453125" customWidth="1"/>
-    <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="13.453125" customWidth="1"/>
+    <col min="15" max="15" width="13.54296875" customWidth="1"/>
+    <col min="16" max="17" width="13.453125" customWidth="1"/>
+    <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="38" t="s">
         <v>33</v>
       </c>
@@ -21656,7 +21819,7 @@
       <c r="D1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="41" t="s">
         <v>52</v>
       </c>
       <c r="F1" s="39" t="s">
@@ -21684,29 +21847,32 @@
         <v>17</v>
       </c>
       <c r="N1" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="P1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="Q1" s="39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="42" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="71">
+      <c r="E2" s="43">
         <v>4</v>
       </c>
       <c r="F2" s="39">
@@ -21734,29 +21900,32 @@
         <v>1</v>
       </c>
       <c r="N2" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="39">
+        <v>1</v>
+      </c>
+      <c r="P2" s="39">
         <v>3</v>
       </c>
-      <c r="P2" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q2" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="42" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="71">
+      <c r="E3" s="43">
         <v>5</v>
       </c>
       <c r="F3" s="39">
@@ -21784,16 +21953,19 @@
         <v>1</v>
       </c>
       <c r="N3" s="39">
+        <v>0</v>
+      </c>
+      <c r="O3" s="39">
         <v>10</v>
       </c>
-      <c r="O3" s="39">
+      <c r="P3" s="39">
         <v>3</v>
       </c>
-      <c r="P3" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q3" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>21</v>
       </c>
@@ -21806,7 +21978,7 @@
       <c r="D4" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="43">
         <v>0</v>
       </c>
       <c r="F4" s="39">
@@ -21842,21 +22014,24 @@
       <c r="P4" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q4" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="43">
         <v>7</v>
       </c>
       <c r="F5" s="39">
@@ -21884,29 +22059,32 @@
         <v>0</v>
       </c>
       <c r="N5" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="39">
+        <v>1</v>
+      </c>
+      <c r="P5" s="39">
         <v>2</v>
       </c>
-      <c r="P5" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q5" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A6" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="43">
         <v>20</v>
       </c>
       <c r="F6" s="39">
@@ -21934,29 +22112,32 @@
         <v>2</v>
       </c>
       <c r="N6" s="39">
+        <v>0</v>
+      </c>
+      <c r="O6" s="39">
         <v>10</v>
       </c>
-      <c r="O6" s="39">
+      <c r="P6" s="39">
         <v>3</v>
       </c>
-      <c r="P6" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q6" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A7" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="43">
         <v>24</v>
       </c>
       <c r="F7" s="39">
@@ -21984,29 +22165,32 @@
         <v>6</v>
       </c>
       <c r="N7" s="39">
+        <v>0</v>
+      </c>
+      <c r="O7" s="39">
         <v>34</v>
       </c>
-      <c r="O7" s="39">
+      <c r="P7" s="39">
         <v>9</v>
       </c>
-      <c r="P7" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q7" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A8" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="42" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="43">
         <v>0</v>
       </c>
       <c r="F8" s="39">
@@ -22034,29 +22218,32 @@
         <v>0</v>
       </c>
       <c r="N8" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q8" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A9" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="42" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="43">
         <v>6</v>
       </c>
       <c r="F9" s="39">
@@ -22087,26 +22274,29 @@
         <v>0</v>
       </c>
       <c r="O9" s="39">
+        <v>0</v>
+      </c>
+      <c r="P9" s="39">
         <v>4</v>
       </c>
-      <c r="P9" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q9" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A10" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="42" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="43">
         <v>8</v>
       </c>
       <c r="F10" s="39">
@@ -22134,29 +22324,32 @@
         <v>3</v>
       </c>
       <c r="N10" s="39">
+        <v>0</v>
+      </c>
+      <c r="O10" s="39">
         <v>7</v>
       </c>
-      <c r="O10" s="39">
+      <c r="P10" s="39">
         <v>6</v>
       </c>
-      <c r="P10" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q10" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A11" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="42" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="71">
+      <c r="E11" s="43">
         <v>0</v>
       </c>
       <c r="F11" s="39">
@@ -22192,21 +22385,24 @@
       <c r="P11" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q11" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A12" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="42" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="43">
         <v>4</v>
       </c>
       <c r="F12" s="39">
@@ -22234,29 +22430,32 @@
         <v>2</v>
       </c>
       <c r="N12" s="39">
+        <v>0</v>
+      </c>
+      <c r="O12" s="39">
         <v>4</v>
       </c>
-      <c r="O12" s="39">
+      <c r="P12" s="39">
         <v>2</v>
       </c>
-      <c r="P12" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q12" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A13" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="42" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="71">
+      <c r="E13" s="43">
         <v>8</v>
       </c>
       <c r="F13" s="39">
@@ -22284,29 +22483,32 @@
         <v>0</v>
       </c>
       <c r="N13" s="39">
+        <v>0</v>
+      </c>
+      <c r="O13" s="39">
         <v>5</v>
       </c>
-      <c r="O13" s="39">
-        <v>0</v>
-      </c>
       <c r="P13" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q13" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A14" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="42" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="71">
+      <c r="E14" s="43">
         <v>11</v>
       </c>
       <c r="F14" s="39">
@@ -22334,29 +22536,32 @@
         <v>1</v>
       </c>
       <c r="N14" s="39">
+        <v>0</v>
+      </c>
+      <c r="O14" s="39">
         <v>6</v>
       </c>
-      <c r="O14" s="39">
+      <c r="P14" s="39">
         <v>2</v>
       </c>
-      <c r="P14" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q14" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A15" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="42" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="71">
+      <c r="E15" s="43">
         <v>2</v>
       </c>
       <c r="F15" s="39">
@@ -22384,29 +22589,32 @@
         <v>0</v>
       </c>
       <c r="N15" s="39">
+        <v>0</v>
+      </c>
+      <c r="O15" s="39">
         <v>9</v>
       </c>
-      <c r="O15" s="39">
-        <v>1</v>
-      </c>
       <c r="P15" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A16" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="71">
+      <c r="E16" s="43">
         <v>20</v>
       </c>
       <c r="F16" s="39">
@@ -22434,29 +22642,32 @@
         <v>0</v>
       </c>
       <c r="N16" s="39">
+        <v>0</v>
+      </c>
+      <c r="O16" s="39">
         <v>13</v>
       </c>
-      <c r="O16" s="39">
-        <v>0</v>
-      </c>
       <c r="P16" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q16" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A17" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="71">
+      <c r="E17" s="43">
         <v>53</v>
       </c>
       <c r="F17" s="39">
@@ -22484,29 +22695,32 @@
         <v>2</v>
       </c>
       <c r="N17" s="39">
+        <v>0</v>
+      </c>
+      <c r="O17" s="39">
         <v>45</v>
       </c>
-      <c r="O17" s="39">
+      <c r="P17" s="39">
         <v>7</v>
       </c>
-      <c r="P17" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q17" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A18" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="71">
+      <c r="E18" s="43">
         <v>0</v>
       </c>
       <c r="F18" s="39">
@@ -22534,29 +22748,32 @@
         <v>0</v>
       </c>
       <c r="N18" s="39">
+        <v>0</v>
+      </c>
+      <c r="O18" s="39">
         <v>14</v>
       </c>
-      <c r="O18" s="39">
-        <v>0</v>
-      </c>
       <c r="P18" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q18" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A19" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="42" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="71">
+      <c r="E19" s="43">
         <v>0</v>
       </c>
       <c r="F19" s="39">
@@ -22584,29 +22801,32 @@
         <v>0</v>
       </c>
       <c r="N19" s="39">
+        <v>0</v>
+      </c>
+      <c r="O19" s="39">
         <v>3</v>
       </c>
-      <c r="O19" s="39">
-        <v>0</v>
-      </c>
       <c r="P19" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A20" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="42" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="71">
+      <c r="E20" s="43">
         <v>0</v>
       </c>
       <c r="F20" s="39">
@@ -22634,29 +22854,32 @@
         <v>0</v>
       </c>
       <c r="N20" s="39">
+        <v>0</v>
+      </c>
+      <c r="O20" s="39">
         <v>26</v>
       </c>
-      <c r="O20" s="39">
-        <v>0</v>
-      </c>
       <c r="P20" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q20" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A21" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="42" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="71">
+      <c r="E21" s="43">
         <v>1</v>
       </c>
       <c r="F21" s="39">
@@ -22692,21 +22915,24 @@
       <c r="P21" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q21" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A22" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="42" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="71">
+      <c r="E22" s="43">
         <v>7</v>
       </c>
       <c r="F22" s="39">
@@ -22734,29 +22960,32 @@
         <v>5</v>
       </c>
       <c r="N22" s="39">
+        <v>0</v>
+      </c>
+      <c r="O22" s="39">
         <v>5</v>
       </c>
-      <c r="O22" s="39">
+      <c r="P22" s="39">
         <v>6</v>
       </c>
-      <c r="P22" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q22" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A23" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="42" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="71">
+      <c r="E23" s="43">
         <v>14</v>
       </c>
       <c r="F23" s="39">
@@ -22784,29 +23013,32 @@
         <v>4</v>
       </c>
       <c r="N23" s="39">
+        <v>0</v>
+      </c>
+      <c r="O23" s="39">
         <v>22</v>
       </c>
-      <c r="O23" s="39">
+      <c r="P23" s="39">
         <v>15</v>
       </c>
-      <c r="P23" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q23" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A24" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="42" t="s">
         <v>43</v>
       </c>
       <c r="D24" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="71">
+      <c r="E24" s="43">
         <v>0</v>
       </c>
       <c r="F24" s="39">
@@ -22842,8 +23074,11 @@
       <c r="P24" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q24" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A25" s="40" t="s">
         <v>21</v>
       </c>
@@ -22856,7 +23091,7 @@
       <c r="D25" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="71">
+      <c r="E25" s="43">
         <v>1</v>
       </c>
       <c r="F25" s="39">
@@ -22892,21 +23127,24 @@
       <c r="P25" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q25" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A26" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="71">
+      <c r="E26" s="43">
         <v>22</v>
       </c>
       <c r="F26" s="39">
@@ -22934,29 +23172,32 @@
         <v>0</v>
       </c>
       <c r="N26" s="39">
+        <v>0</v>
+      </c>
+      <c r="O26" s="39">
         <v>47</v>
       </c>
-      <c r="O26" s="39">
-        <v>0</v>
-      </c>
       <c r="P26" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q26" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A27" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D27" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="71">
+      <c r="E27" s="43">
         <v>0</v>
       </c>
       <c r="F27" s="39">
@@ -22984,29 +23225,32 @@
         <v>1</v>
       </c>
       <c r="N27" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="39">
+        <v>1</v>
+      </c>
+      <c r="P27" s="39">
         <v>2</v>
       </c>
-      <c r="P27" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q27" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A28" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="70" t="s">
+      <c r="C28" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D28" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="71">
+      <c r="E28" s="43">
         <v>1</v>
       </c>
       <c r="F28" s="39">
@@ -23042,21 +23286,24 @@
       <c r="P28" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q28" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A29" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D29" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="71">
+      <c r="E29" s="43">
         <v>10</v>
       </c>
       <c r="F29" s="39">
@@ -23084,29 +23331,32 @@
         <v>4</v>
       </c>
       <c r="N29" s="39">
+        <v>0</v>
+      </c>
+      <c r="O29" s="39">
         <v>13</v>
       </c>
-      <c r="O29" s="39">
+      <c r="P29" s="39">
         <v>5</v>
       </c>
-      <c r="P29" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q29" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A30" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="C30" s="42" t="s">
         <v>46</v>
       </c>
       <c r="D30" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="71">
+      <c r="E30" s="43">
         <v>24</v>
       </c>
       <c r="F30" s="39">
@@ -23134,29 +23384,32 @@
         <v>0</v>
       </c>
       <c r="N30" s="39">
+        <v>0</v>
+      </c>
+      <c r="O30" s="39">
         <v>21</v>
       </c>
-      <c r="O30" s="39">
+      <c r="P30" s="39">
         <v>2</v>
       </c>
-      <c r="P30" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q30" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A31" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B31" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="42" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="71">
+      <c r="E31" s="43">
         <v>6</v>
       </c>
       <c r="F31" s="39">
@@ -23184,29 +23437,32 @@
         <v>1</v>
       </c>
       <c r="N31" s="39">
+        <v>0</v>
+      </c>
+      <c r="O31" s="39">
         <v>7</v>
       </c>
-      <c r="O31" s="39">
+      <c r="P31" s="39">
         <v>2</v>
       </c>
-      <c r="P31" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q31" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A32" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="70" t="s">
+      <c r="C32" s="42" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="71">
+      <c r="E32" s="43">
         <v>1138</v>
       </c>
       <c r="F32" s="39">
@@ -23234,29 +23490,32 @@
         <v>67</v>
       </c>
       <c r="N32" s="39">
+        <v>0</v>
+      </c>
+      <c r="O32" s="39">
         <v>738</v>
       </c>
-      <c r="O32" s="39">
+      <c r="P32" s="39">
         <v>56</v>
       </c>
-      <c r="P32" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q32" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A33" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="70" t="s">
+      <c r="C33" s="42" t="s">
         <v>47</v>
       </c>
       <c r="D33" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="71">
+      <c r="E33" s="43">
         <v>1</v>
       </c>
       <c r="F33" s="39">
@@ -23287,26 +23546,29 @@
         <v>0</v>
       </c>
       <c r="O33" s="39">
+        <v>0</v>
+      </c>
+      <c r="P33" s="39">
         <v>3</v>
       </c>
-      <c r="P33" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q33" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A34" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="70" t="s">
+      <c r="C34" s="42" t="s">
         <v>47</v>
       </c>
       <c r="D34" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="71">
+      <c r="E34" s="43">
         <v>0</v>
       </c>
       <c r="F34" s="39">
@@ -23334,29 +23596,32 @@
         <v>4</v>
       </c>
       <c r="N34" s="39">
+        <v>0</v>
+      </c>
+      <c r="O34" s="39">
         <v>2</v>
       </c>
-      <c r="O34" s="39">
-        <v>0</v>
-      </c>
       <c r="P34" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q34" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A35" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B35" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="70" t="s">
+      <c r="C35" s="42" t="s">
         <v>47</v>
       </c>
       <c r="D35" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="71">
+      <c r="E35" s="43">
         <v>52</v>
       </c>
       <c r="F35" s="39">
@@ -23384,29 +23649,32 @@
         <v>19</v>
       </c>
       <c r="N35" s="39">
+        <v>0</v>
+      </c>
+      <c r="O35" s="39">
         <v>35</v>
       </c>
-      <c r="O35" s="39">
+      <c r="P35" s="39">
         <v>19</v>
       </c>
-      <c r="P35" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q35" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A36" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B36" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="70" t="s">
+      <c r="C36" s="42" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="71">
+      <c r="E36" s="43">
         <v>0</v>
       </c>
       <c r="F36" s="39">
@@ -23442,21 +23710,24 @@
       <c r="P36" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q36" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A37" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B37" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="70" t="s">
+      <c r="C37" s="42" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="71">
+      <c r="E37" s="43">
         <v>0</v>
       </c>
       <c r="F37" s="39">
@@ -23492,21 +23763,24 @@
       <c r="P37" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q37" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A38" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="70" t="s">
+      <c r="C38" s="42" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="71">
+      <c r="E38" s="43">
         <v>32</v>
       </c>
       <c r="F38" s="39">
@@ -23537,26 +23811,29 @@
         <v>0</v>
       </c>
       <c r="O38" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A39" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B39" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="70" t="s">
+      <c r="C39" s="42" t="s">
         <v>49</v>
       </c>
       <c r="D39" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="71">
+      <c r="E39" s="43">
         <v>5</v>
       </c>
       <c r="F39" s="39">
@@ -23584,29 +23861,32 @@
         <v>2</v>
       </c>
       <c r="N39" s="39">
+        <v>0</v>
+      </c>
+      <c r="O39" s="39">
         <v>2</v>
       </c>
-      <c r="O39" s="39">
-        <v>0</v>
-      </c>
       <c r="P39" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q39" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A40" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B40" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="70" t="s">
+      <c r="C40" s="42" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="71">
+      <c r="E40" s="43">
         <v>4</v>
       </c>
       <c r="F40" s="39">
@@ -23634,29 +23914,32 @@
         <v>2</v>
       </c>
       <c r="N40" s="39">
+        <v>0</v>
+      </c>
+      <c r="O40" s="39">
         <v>3</v>
       </c>
-      <c r="O40" s="39">
-        <v>0</v>
-      </c>
       <c r="P40" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q40" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A41" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B41" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="70" t="s">
+      <c r="C41" s="42" t="s">
         <v>49</v>
       </c>
       <c r="D41" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="71">
+      <c r="E41" s="43">
         <v>19</v>
       </c>
       <c r="F41" s="39">
@@ -23684,16 +23967,19 @@
         <v>6</v>
       </c>
       <c r="N41" s="39">
+        <v>0</v>
+      </c>
+      <c r="O41" s="39">
         <v>33</v>
       </c>
-      <c r="O41" s="39">
+      <c r="P41" s="39">
         <v>7</v>
       </c>
-      <c r="P41" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q41" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A42" s="40" t="s">
         <v>21</v>
       </c>
@@ -23706,7 +23992,7 @@
       <c r="D42" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="71">
+      <c r="E42" s="43">
         <v>3</v>
       </c>
       <c r="F42" s="39">
@@ -23734,16 +24020,19 @@
         <v>2</v>
       </c>
       <c r="N42" s="39">
+        <v>0</v>
+      </c>
+      <c r="O42" s="39">
         <v>4</v>
       </c>
-      <c r="O42" s="39">
+      <c r="P42" s="39">
         <v>2</v>
       </c>
-      <c r="P42" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q42" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A43" s="40" t="s">
         <v>21</v>
       </c>
@@ -23756,7 +24045,7 @@
       <c r="D43" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="71">
+      <c r="E43" s="43">
         <v>17</v>
       </c>
       <c r="F43" s="39">
@@ -23784,16 +24073,19 @@
         <v>18</v>
       </c>
       <c r="N43" s="39">
+        <v>0</v>
+      </c>
+      <c r="O43" s="39">
         <v>5</v>
       </c>
-      <c r="O43" s="39">
+      <c r="P43" s="39">
         <v>9</v>
       </c>
-      <c r="P43" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q43" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A44" s="40" t="s">
         <v>21</v>
       </c>
@@ -23806,7 +24098,7 @@
       <c r="D44" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="71">
+      <c r="E44" s="43">
         <v>6</v>
       </c>
       <c r="F44" s="39">
@@ -23834,16 +24126,19 @@
         <v>1</v>
       </c>
       <c r="N44" s="39">
+        <v>0</v>
+      </c>
+      <c r="O44" s="39">
         <v>4</v>
       </c>
-      <c r="O44" s="39">
-        <v>1</v>
-      </c>
       <c r="P44" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A45" s="40" t="s">
         <v>21</v>
       </c>
@@ -23856,7 +24151,7 @@
       <c r="D45" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="71">
+      <c r="E45" s="43">
         <v>2</v>
       </c>
       <c r="F45" s="39">
@@ -23892,8 +24187,11 @@
       <c r="P45" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q45" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A46" s="40" t="s">
         <v>21</v>
       </c>
@@ -23906,7 +24204,7 @@
       <c r="D46" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="71">
+      <c r="E46" s="43">
         <v>0</v>
       </c>
       <c r="F46" s="39">
@@ -23942,8 +24240,11 @@
       <c r="P46" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q46" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A47" s="40" t="s">
         <v>21</v>
       </c>
@@ -23956,7 +24257,7 @@
       <c r="D47" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="71">
+      <c r="E47" s="43">
         <v>9</v>
       </c>
       <c r="F47" s="39">
@@ -23984,29 +24285,32 @@
         <v>10</v>
       </c>
       <c r="N47" s="39">
+        <v>0</v>
+      </c>
+      <c r="O47" s="39">
         <v>5</v>
       </c>
-      <c r="O47" s="39">
+      <c r="P47" s="39">
         <v>4</v>
       </c>
-      <c r="P47" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q47" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A48" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B48" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="70" t="s">
+      <c r="C48" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D48" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="71">
+      <c r="E48" s="43">
         <v>4</v>
       </c>
       <c r="F48" s="39">
@@ -24034,29 +24338,32 @@
         <v>0</v>
       </c>
       <c r="N48" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" s="39">
         <v>1</v>
       </c>
       <c r="P48" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A49" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B49" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="70" t="s">
+      <c r="C49" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D49" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="71">
+      <c r="E49" s="43">
         <v>3</v>
       </c>
       <c r="F49" s="39">
@@ -24087,13 +24394,16 @@
         <v>0</v>
       </c>
       <c r="O49" s="39">
+        <v>0</v>
+      </c>
+      <c r="P49" s="39">
         <v>2</v>
       </c>
-      <c r="P49" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q49" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A50" s="40" t="s">
         <v>21</v>
       </c>
@@ -24106,7 +24416,7 @@
       <c r="D50" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="71">
+      <c r="E50" s="43">
         <v>13</v>
       </c>
       <c r="F50" s="39">
@@ -24134,16 +24444,19 @@
         <v>5</v>
       </c>
       <c r="N50" s="39">
+        <v>0</v>
+      </c>
+      <c r="O50" s="39">
         <v>5</v>
       </c>
-      <c r="O50" s="39">
+      <c r="P50" s="39">
         <v>9</v>
       </c>
-      <c r="P50" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
+      <c r="Q50" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="80" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A51" s="40" t="s">
         <v>21</v>
       </c>
@@ -24156,7 +24469,7 @@
       <c r="D51" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="71">
+      <c r="E51" s="43">
         <v>5</v>
       </c>
       <c r="F51" s="39">
@@ -24184,17 +24497,20 @@
         <v>2</v>
       </c>
       <c r="N51" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="1:16" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="Q51" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="1:17" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="1.2374015748031499" header="0.78740157480314998" footer="0.78740157480314998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -24234,31 +24550,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="75"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="68" t="s">
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="68" t="s">
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="68" t="s">
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="68" t="s">
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
     </row>
     <row r="2" spans="1:17" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
@@ -24273,7 +24589,7 @@
       <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="41" t="s">
         <v>52</v>
       </c>
       <c r="F2" s="39" t="s">
@@ -24320,13 +24636,13 @@
       <c r="B3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="42" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="71">
+      <c r="E3" s="43">
         <v>4</v>
       </c>
       <c r="F3" s="39">
@@ -24373,13 +24689,13 @@
       <c r="B4" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="42" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="43">
         <v>5</v>
       </c>
       <c r="F4" s="39">
@@ -24432,7 +24748,7 @@
       <c r="D5" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="43">
         <v>0</v>
       </c>
       <c r="F5" s="39">
@@ -24479,13 +24795,13 @@
       <c r="B6" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="43">
         <v>7</v>
       </c>
       <c r="F6" s="39">
@@ -24532,13 +24848,13 @@
       <c r="B7" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="43">
         <v>20</v>
       </c>
       <c r="F7" s="39">
@@ -24585,13 +24901,13 @@
       <c r="B8" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="43">
         <v>24</v>
       </c>
       <c r="F8" s="39">
@@ -24638,13 +24954,13 @@
       <c r="B9" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="42" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="43">
         <v>0</v>
       </c>
       <c r="F9" s="39">
@@ -24691,13 +25007,13 @@
       <c r="B10" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="42" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="43">
         <v>6</v>
       </c>
       <c r="F10" s="39">
@@ -24744,13 +25060,13 @@
       <c r="B11" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="42" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="71">
+      <c r="E11" s="43">
         <v>8</v>
       </c>
       <c r="F11" s="39">
@@ -24797,13 +25113,13 @@
       <c r="B12" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="42" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="43">
         <v>0</v>
       </c>
       <c r="F12" s="39">
@@ -24850,13 +25166,13 @@
       <c r="B13" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="42" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="71">
+      <c r="E13" s="43">
         <v>4</v>
       </c>
       <c r="F13" s="39">
@@ -24903,13 +25219,13 @@
       <c r="B14" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="42" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="71">
+      <c r="E14" s="43">
         <v>8</v>
       </c>
       <c r="F14" s="39">
@@ -24949,20 +25265,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="48" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A15" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="42" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="71">
+      <c r="E15" s="43">
         <v>11</v>
       </c>
       <c r="F15" s="39">
@@ -25009,13 +25325,13 @@
       <c r="B16" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="42" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="71">
+      <c r="E16" s="43">
         <v>2</v>
       </c>
       <c r="F16" s="39">
@@ -25062,13 +25378,13 @@
       <c r="B17" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="71">
+      <c r="E17" s="43">
         <v>20</v>
       </c>
       <c r="F17" s="39">
@@ -25115,13 +25431,13 @@
       <c r="B18" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="71">
+      <c r="E18" s="43">
         <v>53</v>
       </c>
       <c r="F18" s="39">
@@ -25168,13 +25484,13 @@
       <c r="B19" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="71">
+      <c r="E19" s="43">
         <v>0</v>
       </c>
       <c r="F19" s="39">
@@ -25221,13 +25537,13 @@
       <c r="B20" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="42" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="71">
+      <c r="E20" s="43">
         <v>0</v>
       </c>
       <c r="F20" s="39">
@@ -25274,13 +25590,13 @@
       <c r="B21" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="42" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="71">
+      <c r="E21" s="43">
         <v>0</v>
       </c>
       <c r="F21" s="39">
@@ -25327,13 +25643,13 @@
       <c r="B22" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="42" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="71">
+      <c r="E22" s="43">
         <v>1</v>
       </c>
       <c r="F22" s="39">
@@ -25380,13 +25696,13 @@
       <c r="B23" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="42" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="71">
+      <c r="E23" s="43">
         <v>7</v>
       </c>
       <c r="F23" s="39">
@@ -25433,13 +25749,13 @@
       <c r="B24" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="42" t="s">
         <v>43</v>
       </c>
       <c r="D24" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="71">
+      <c r="E24" s="43">
         <v>14</v>
       </c>
       <c r="F24" s="39">
@@ -25486,13 +25802,13 @@
       <c r="B25" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="42" t="s">
         <v>43</v>
       </c>
       <c r="D25" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="71">
+      <c r="E25" s="43">
         <v>0</v>
       </c>
       <c r="F25" s="39">
@@ -25545,7 +25861,7 @@
       <c r="D26" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="71">
+      <c r="E26" s="43">
         <v>1</v>
       </c>
       <c r="F26" s="39">
@@ -25592,13 +25908,13 @@
       <c r="B27" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D27" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="71">
+      <c r="E27" s="43">
         <v>22</v>
       </c>
       <c r="F27" s="39">
@@ -25645,13 +25961,13 @@
       <c r="B28" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="70" t="s">
+      <c r="C28" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D28" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="71">
+      <c r="E28" s="43">
         <v>0</v>
       </c>
       <c r="F28" s="39">
@@ -25698,13 +26014,13 @@
       <c r="B29" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D29" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="71">
+      <c r="E29" s="43">
         <v>1</v>
       </c>
       <c r="F29" s="39">
@@ -25751,13 +26067,13 @@
       <c r="B30" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="C30" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D30" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="71">
+      <c r="E30" s="43">
         <v>10</v>
       </c>
       <c r="F30" s="39">
@@ -25804,13 +26120,13 @@
       <c r="B31" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="42" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="71">
+      <c r="E31" s="43">
         <v>24</v>
       </c>
       <c r="F31" s="39">
@@ -25857,13 +26173,13 @@
       <c r="B32" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="70" t="s">
+      <c r="C32" s="42" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="71">
+      <c r="E32" s="43">
         <v>6</v>
       </c>
       <c r="F32" s="39">
@@ -25910,13 +26226,13 @@
       <c r="B33" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="70" t="s">
+      <c r="C33" s="42" t="s">
         <v>46</v>
       </c>
       <c r="D33" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="71">
+      <c r="E33" s="43">
         <v>1138</v>
       </c>
       <c r="F33" s="39">
@@ -25963,13 +26279,13 @@
       <c r="B34" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="70" t="s">
+      <c r="C34" s="42" t="s">
         <v>47</v>
       </c>
       <c r="D34" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="71">
+      <c r="E34" s="43">
         <v>1</v>
       </c>
       <c r="F34" s="39">
@@ -26016,13 +26332,13 @@
       <c r="B35" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="70" t="s">
+      <c r="C35" s="42" t="s">
         <v>47</v>
       </c>
       <c r="D35" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="71">
+      <c r="E35" s="43">
         <v>0</v>
       </c>
       <c r="F35" s="39">
@@ -26069,13 +26385,13 @@
       <c r="B36" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="70" t="s">
+      <c r="C36" s="42" t="s">
         <v>47</v>
       </c>
       <c r="D36" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="71">
+      <c r="E36" s="43">
         <v>52</v>
       </c>
       <c r="F36" s="39">
@@ -26122,13 +26438,13 @@
       <c r="B37" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="70" t="s">
+      <c r="C37" s="42" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="71">
+      <c r="E37" s="43">
         <v>0</v>
       </c>
       <c r="F37" s="39">
@@ -26175,13 +26491,13 @@
       <c r="B38" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="70" t="s">
+      <c r="C38" s="42" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="71">
+      <c r="E38" s="43">
         <v>0</v>
       </c>
       <c r="F38" s="39">
@@ -26228,13 +26544,13 @@
       <c r="B39" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="70" t="s">
+      <c r="C39" s="42" t="s">
         <v>48</v>
       </c>
       <c r="D39" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="71">
+      <c r="E39" s="43">
         <v>32</v>
       </c>
       <c r="F39" s="39">
@@ -26281,13 +26597,13 @@
       <c r="B40" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="70" t="s">
+      <c r="C40" s="42" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="71">
+      <c r="E40" s="43">
         <v>5</v>
       </c>
       <c r="F40" s="39">
@@ -26334,13 +26650,13 @@
       <c r="B41" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="70" t="s">
+      <c r="C41" s="42" t="s">
         <v>49</v>
       </c>
       <c r="D41" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="71">
+      <c r="E41" s="43">
         <v>4</v>
       </c>
       <c r="F41" s="39">
@@ -26387,13 +26703,13 @@
       <c r="B42" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="70" t="s">
+      <c r="C42" s="42" t="s">
         <v>49</v>
       </c>
       <c r="D42" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="71">
+      <c r="E42" s="43">
         <v>19</v>
       </c>
       <c r="F42" s="39">
@@ -26446,7 +26762,7 @@
       <c r="D43" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="71">
+      <c r="E43" s="43">
         <v>3</v>
       </c>
       <c r="F43" s="39">
@@ -26499,7 +26815,7 @@
       <c r="D44" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="71">
+      <c r="E44" s="43">
         <v>17</v>
       </c>
       <c r="F44" s="39">
@@ -26552,7 +26868,7 @@
       <c r="D45" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="71">
+      <c r="E45" s="43">
         <v>6</v>
       </c>
       <c r="F45" s="39">
@@ -26605,7 +26921,7 @@
       <c r="D46" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="71">
+      <c r="E46" s="43">
         <v>2</v>
       </c>
       <c r="F46" s="39">
@@ -26658,7 +26974,7 @@
       <c r="D47" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="71">
+      <c r="E47" s="43">
         <v>0</v>
       </c>
       <c r="F47" s="39">
@@ -26711,7 +27027,7 @@
       <c r="D48" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="71">
+      <c r="E48" s="43">
         <v>9</v>
       </c>
       <c r="F48" s="39">
@@ -26758,13 +27074,13 @@
       <c r="B49" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="70" t="s">
+      <c r="C49" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D49" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E49" s="71">
+      <c r="E49" s="43">
         <v>4</v>
       </c>
       <c r="F49" s="39">
@@ -26811,13 +27127,13 @@
       <c r="B50" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="70" t="s">
+      <c r="C50" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D50" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="71">
+      <c r="E50" s="43">
         <v>3</v>
       </c>
       <c r="F50" s="39">
@@ -26870,7 +27186,7 @@
       <c r="D51" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="71">
+      <c r="E51" s="43">
         <v>13</v>
       </c>
       <c r="F51" s="39">
@@ -26923,7 +27239,7 @@
       <c r="D52" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="71">
+      <c r="E52" s="43">
         <v>5</v>
       </c>
       <c r="F52" s="39">
@@ -26989,7 +27305,7 @@
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="3" x14ac:dyDescent="0.35"/>
@@ -27023,7 +27339,7 @@
       <c r="D1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="41" t="s">
         <v>52</v>
       </c>
       <c r="F1" s="39" t="s">
@@ -27070,13 +27386,13 @@
       <c r="B2" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="42" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="71">
+      <c r="E2" s="43">
         <v>4</v>
       </c>
       <c r="F2" s="39">
@@ -27123,13 +27439,13 @@
       <c r="B3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="42" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="71">
+      <c r="E3" s="43">
         <v>5</v>
       </c>
       <c r="F3" s="39">
@@ -27182,7 +27498,7 @@
       <c r="D4" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="43">
         <v>0</v>
       </c>
       <c r="F4" s="39">
@@ -27229,13 +27545,13 @@
       <c r="B5" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="43">
         <v>7</v>
       </c>
       <c r="F5" s="39">
@@ -27282,13 +27598,13 @@
       <c r="B6" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="43">
         <v>20</v>
       </c>
       <c r="F6" s="39">
@@ -27335,13 +27651,13 @@
       <c r="B7" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="43">
         <v>24</v>
       </c>
       <c r="F7" s="39">
@@ -27388,13 +27704,13 @@
       <c r="B8" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="42" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="43">
         <v>0</v>
       </c>
       <c r="F8" s="39">
@@ -27441,13 +27757,13 @@
       <c r="B9" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="42" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="43">
         <v>6</v>
       </c>
       <c r="F9" s="39">
@@ -27494,13 +27810,13 @@
       <c r="B10" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="42" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="43">
         <v>8</v>
       </c>
       <c r="F10" s="39">
@@ -27547,13 +27863,13 @@
       <c r="B11" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="42" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="71">
+      <c r="E11" s="43">
         <v>0</v>
       </c>
       <c r="F11" s="39">
@@ -27600,13 +27916,13 @@
       <c r="B12" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="42" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="43">
         <v>4</v>
       </c>
       <c r="F12" s="39">
@@ -27653,13 +27969,13 @@
       <c r="B13" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="42" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="71">
+      <c r="E13" s="43">
         <v>8</v>
       </c>
       <c r="F13" s="39">
@@ -27706,13 +28022,13 @@
       <c r="B14" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="42" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="71">
+      <c r="E14" s="43">
         <v>11</v>
       </c>
       <c r="F14" s="39">
@@ -27759,13 +28075,13 @@
       <c r="B15" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="42" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="71">
+      <c r="E15" s="43">
         <v>2</v>
       </c>
       <c r="F15" s="39">
@@ -27812,13 +28128,13 @@
       <c r="B16" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="71">
+      <c r="E16" s="43">
         <v>20</v>
       </c>
       <c r="F16" s="39">
@@ -27865,13 +28181,13 @@
       <c r="B17" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="71">
+      <c r="E17" s="43">
         <v>53</v>
       </c>
       <c r="F17" s="39">
@@ -27918,13 +28234,13 @@
       <c r="B18" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="71">
+      <c r="E18" s="43">
         <v>0</v>
       </c>
       <c r="F18" s="39">
@@ -27971,13 +28287,13 @@
       <c r="B19" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="42" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="71">
+      <c r="E19" s="43">
         <v>0</v>
       </c>
       <c r="F19" s="39">
@@ -28024,13 +28340,13 @@
       <c r="B20" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="42" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="71">
+      <c r="E20" s="43">
         <v>0</v>
       </c>
       <c r="F20" s="39">
@@ -28077,13 +28393,13 @@
       <c r="B21" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="42" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="71">
+      <c r="E21" s="43">
         <v>1</v>
       </c>
       <c r="F21" s="39">
@@ -28130,13 +28446,13 @@
       <c r="B22" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="42" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="71">
+      <c r="E22" s="43">
         <v>7</v>
       </c>
       <c r="F22" s="39">
@@ -28183,13 +28499,13 @@
       <c r="B23" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="42" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="71">
+      <c r="E23" s="43">
         <v>14</v>
       </c>
       <c r="F23" s="39">
@@ -28236,13 +28552,13 @@
       <c r="B24" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="42" t="s">
         <v>43</v>
       </c>
       <c r="D24" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="71">
+      <c r="E24" s="43">
         <v>0</v>
       </c>
       <c r="F24" s="39">
@@ -28295,7 +28611,7 @@
       <c r="D25" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="71">
+      <c r="E25" s="43">
         <v>1</v>
       </c>
       <c r="F25" s="39">
@@ -28342,13 +28658,13 @@
       <c r="B26" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="71">
+      <c r="E26" s="43">
         <v>22</v>
       </c>
       <c r="F26" s="39">
@@ -28395,13 +28711,13 @@
       <c r="B27" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D27" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="71">
+      <c r="E27" s="43">
         <v>0</v>
       </c>
       <c r="F27" s="39">
@@ -28448,13 +28764,13 @@
       <c r="B28" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="70" t="s">
+      <c r="C28" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D28" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="71">
+      <c r="E28" s="43">
         <v>1</v>
       </c>
       <c r="F28" s="39">
@@ -28501,13 +28817,13 @@
       <c r="B29" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D29" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="71">
+      <c r="E29" s="43">
         <v>10</v>
       </c>
       <c r="F29" s="39">
@@ -28554,13 +28870,13 @@
       <c r="B30" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="C30" s="42" t="s">
         <v>46</v>
       </c>
       <c r="D30" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="71">
+      <c r="E30" s="43">
         <v>24</v>
       </c>
       <c r="F30" s="39">
@@ -28607,13 +28923,13 @@
       <c r="B31" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="42" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="71">
+      <c r="E31" s="43">
         <v>6</v>
       </c>
       <c r="F31" s="39">
@@ -28660,13 +28976,13 @@
       <c r="B32" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="70" t="s">
+      <c r="C32" s="42" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="71">
+      <c r="E32" s="43">
         <v>1138</v>
       </c>
       <c r="F32" s="39">
@@ -28713,13 +29029,13 @@
       <c r="B33" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="70" t="s">
+      <c r="C33" s="42" t="s">
         <v>47</v>
       </c>
       <c r="D33" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="71">
+      <c r="E33" s="43">
         <v>1</v>
       </c>
       <c r="F33" s="39">
@@ -28766,13 +29082,13 @@
       <c r="B34" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="70" t="s">
+      <c r="C34" s="42" t="s">
         <v>47</v>
       </c>
       <c r="D34" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="71">
+      <c r="E34" s="43">
         <v>0</v>
       </c>
       <c r="F34" s="39">
@@ -28819,13 +29135,13 @@
       <c r="B35" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="70" t="s">
+      <c r="C35" s="42" t="s">
         <v>47</v>
       </c>
       <c r="D35" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="71">
+      <c r="E35" s="43">
         <v>52</v>
       </c>
       <c r="F35" s="39">
@@ -28872,13 +29188,13 @@
       <c r="B36" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="70" t="s">
+      <c r="C36" s="42" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="71">
+      <c r="E36" s="43">
         <v>0</v>
       </c>
       <c r="F36" s="39">
@@ -28925,13 +29241,13 @@
       <c r="B37" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="70" t="s">
+      <c r="C37" s="42" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="71">
+      <c r="E37" s="43">
         <v>0</v>
       </c>
       <c r="F37" s="39">
@@ -28978,13 +29294,13 @@
       <c r="B38" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="70" t="s">
+      <c r="C38" s="42" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="71">
+      <c r="E38" s="43">
         <v>32</v>
       </c>
       <c r="F38" s="39">
@@ -29031,13 +29347,13 @@
       <c r="B39" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="70" t="s">
+      <c r="C39" s="42" t="s">
         <v>49</v>
       </c>
       <c r="D39" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="71">
+      <c r="E39" s="43">
         <v>5</v>
       </c>
       <c r="F39" s="39">
@@ -29084,13 +29400,13 @@
       <c r="B40" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="70" t="s">
+      <c r="C40" s="42" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="71">
+      <c r="E40" s="43">
         <v>4</v>
       </c>
       <c r="F40" s="39">
@@ -29137,13 +29453,13 @@
       <c r="B41" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="70" t="s">
+      <c r="C41" s="42" t="s">
         <v>49</v>
       </c>
       <c r="D41" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="71">
+      <c r="E41" s="43">
         <v>19</v>
       </c>
       <c r="F41" s="39">
@@ -29196,7 +29512,7 @@
       <c r="D42" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="71">
+      <c r="E42" s="43">
         <v>3</v>
       </c>
       <c r="F42" s="39">
@@ -29249,7 +29565,7 @@
       <c r="D43" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="71">
+      <c r="E43" s="43">
         <v>17</v>
       </c>
       <c r="F43" s="39">
@@ -29302,7 +29618,7 @@
       <c r="D44" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="71">
+      <c r="E44" s="43">
         <v>6</v>
       </c>
       <c r="F44" s="39">
@@ -29355,7 +29671,7 @@
       <c r="D45" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="71">
+      <c r="E45" s="43">
         <v>2</v>
       </c>
       <c r="F45" s="39">
@@ -29408,7 +29724,7 @@
       <c r="D46" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="71">
+      <c r="E46" s="43">
         <v>0</v>
       </c>
       <c r="F46" s="39">
@@ -29461,7 +29777,7 @@
       <c r="D47" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="71">
+      <c r="E47" s="43">
         <v>9</v>
       </c>
       <c r="F47" s="39">
@@ -29508,13 +29824,13 @@
       <c r="B48" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="70" t="s">
+      <c r="C48" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D48" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="71">
+      <c r="E48" s="43">
         <v>4</v>
       </c>
       <c r="F48" s="39">
@@ -29561,13 +29877,13 @@
       <c r="B49" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="70" t="s">
+      <c r="C49" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D49" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="71">
+      <c r="E49" s="43">
         <v>3</v>
       </c>
       <c r="F49" s="39">
@@ -29620,7 +29936,7 @@
       <c r="D50" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="71">
+      <c r="E50" s="43">
         <v>13</v>
       </c>
       <c r="F50" s="39">
@@ -29673,7 +29989,7 @@
       <c r="D51" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="71">
+      <c r="E51" s="43">
         <v>5</v>
       </c>
       <c r="F51" s="39">
